--- a/src/test/resources/example1.xlsx
+++ b/src/test/resources/example1.xlsx
@@ -231,7 +231,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1325,29 +1325,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="21.1" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
-        <v>3</v>
-      </c>
       <c r="C2" t="s" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1356,13 +1350,13 @@
     </row>
     <row r="3" ht="20.9" customHeight="1">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1371,13 +1365,13 @@
     </row>
     <row r="4" ht="20.9" customHeight="1">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1386,10 +1380,10 @@
     </row>
     <row r="5" ht="20.9" customHeight="1">
       <c r="A5" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="10">
         <v>4</v>
@@ -1401,13 +1395,13 @@
     </row>
     <row r="6" ht="20.9" customHeight="1">
       <c r="A6" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1415,9 +1409,15 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>6</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
